--- a/Code/Results/Cases/Case_4_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.024629065000338</v>
+        <v>1.054703397297098</v>
       </c>
       <c r="D2">
-        <v>1.042063427909676</v>
+        <v>1.06066765044274</v>
       </c>
       <c r="E2">
-        <v>1.032647634759361</v>
+        <v>1.058387495175654</v>
       </c>
       <c r="F2">
-        <v>1.046412920602044</v>
+        <v>1.069392940101595</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054603221671075</v>
+        <v>1.049390810923261</v>
       </c>
       <c r="J2">
-        <v>1.046097276625706</v>
+        <v>1.05971410419369</v>
       </c>
       <c r="K2">
-        <v>1.0529662796774</v>
+        <v>1.063393805474529</v>
       </c>
       <c r="L2">
-        <v>1.043670128333576</v>
+        <v>1.061119867658763</v>
       </c>
       <c r="M2">
-        <v>1.057261411359279</v>
+        <v>1.072095568152594</v>
       </c>
       <c r="N2">
-        <v>1.018404582545232</v>
+        <v>1.023586948131093</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.0301157856173</v>
+        <v>1.055840672272789</v>
       </c>
       <c r="D3">
-        <v>1.046402720007176</v>
+        <v>1.061587128688237</v>
       </c>
       <c r="E3">
-        <v>1.037651371666763</v>
+        <v>1.059475010599624</v>
       </c>
       <c r="F3">
-        <v>1.051267685973259</v>
+        <v>1.070444297958106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056578873738172</v>
+        <v>1.049741470389257</v>
       </c>
       <c r="J3">
-        <v>1.049817824745708</v>
+        <v>1.060501856882689</v>
       </c>
       <c r="K3">
-        <v>1.056474396662047</v>
+        <v>1.064127489012212</v>
       </c>
       <c r="L3">
-        <v>1.047824137186972</v>
+        <v>1.062020712803779</v>
       </c>
       <c r="M3">
-        <v>1.061284063495964</v>
+        <v>1.072962504252294</v>
       </c>
       <c r="N3">
-        <v>1.019712017660406</v>
+        <v>1.023858171336445</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033584709821052</v>
+        <v>1.056576607756947</v>
       </c>
       <c r="D4">
-        <v>1.049149189408496</v>
+        <v>1.062182114724941</v>
       </c>
       <c r="E4">
-        <v>1.040820073868244</v>
+        <v>1.060179077789721</v>
       </c>
       <c r="F4">
-        <v>1.054342445233822</v>
+        <v>1.071124926992027</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057819000503894</v>
+        <v>1.049967219603939</v>
       </c>
       <c r="J4">
-        <v>1.052166656121668</v>
+        <v>1.061011058796739</v>
       </c>
       <c r="K4">
-        <v>1.058688519795576</v>
+        <v>1.064601622144134</v>
       </c>
       <c r="L4">
-        <v>1.050449587193474</v>
+        <v>1.062603395573644</v>
       </c>
       <c r="M4">
-        <v>1.063826428577018</v>
+        <v>1.073523193493495</v>
       </c>
       <c r="N4">
-        <v>1.020536573991041</v>
+        <v>1.024033287165428</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.035024383792122</v>
+        <v>1.056886006064761</v>
       </c>
       <c r="D5">
-        <v>1.050289689039218</v>
+        <v>1.062432252186419</v>
       </c>
       <c r="E5">
-        <v>1.042136340652313</v>
+        <v>1.060475157025801</v>
       </c>
       <c r="F5">
-        <v>1.055619768031801</v>
+        <v>1.071411142627186</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058331488521025</v>
+        <v>1.050061849143899</v>
       </c>
       <c r="J5">
-        <v>1.053140601252421</v>
+        <v>1.061225001466841</v>
       </c>
       <c r="K5">
-        <v>1.059606454814089</v>
+        <v>1.064800802046046</v>
       </c>
       <c r="L5">
-        <v>1.051538949336703</v>
+        <v>1.062848302028143</v>
       </c>
       <c r="M5">
-        <v>1.064881290344782</v>
+        <v>1.073758841252598</v>
       </c>
       <c r="N5">
-        <v>1.020878262748157</v>
+        <v>1.024106813955276</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.035265039818377</v>
+        <v>1.056937956073672</v>
       </c>
       <c r="D6">
-        <v>1.050480372121366</v>
+        <v>1.062474251680534</v>
       </c>
       <c r="E6">
-        <v>1.042356436761223</v>
+        <v>1.060524875283962</v>
       </c>
       <c r="F6">
-        <v>1.055833356466182</v>
+        <v>1.071459204139533</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058417026179205</v>
+        <v>1.050077721711652</v>
       </c>
       <c r="J6">
-        <v>1.053303353855531</v>
+        <v>1.061260916013222</v>
       </c>
       <c r="K6">
-        <v>1.059759838472832</v>
+        <v>1.064834236691069</v>
       </c>
       <c r="L6">
-        <v>1.051721031160116</v>
+        <v>1.06288941977823</v>
       </c>
       <c r="M6">
-        <v>1.065057603720789</v>
+        <v>1.073798403683076</v>
       </c>
       <c r="N6">
-        <v>1.020935348240387</v>
+        <v>1.024119154036302</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033604019101406</v>
+        <v>1.056580741907859</v>
       </c>
       <c r="D7">
-        <v>1.049164483556915</v>
+        <v>1.062185457052947</v>
       </c>
       <c r="E7">
-        <v>1.040837723326047</v>
+        <v>1.060183033663297</v>
       </c>
       <c r="F7">
-        <v>1.05435957220796</v>
+        <v>1.071128751108011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057825882832717</v>
+        <v>1.049968485130604</v>
       </c>
       <c r="J7">
-        <v>1.052179722407167</v>
+        <v>1.061013918003163</v>
       </c>
       <c r="K7">
-        <v>1.05870083527725</v>
+        <v>1.064604284167883</v>
       </c>
       <c r="L7">
-        <v>1.05046419905409</v>
+        <v>1.062606668235035</v>
       </c>
       <c r="M7">
-        <v>1.063840577795193</v>
+        <v>1.073526342489494</v>
       </c>
       <c r="N7">
-        <v>1.020541158892921</v>
+        <v>1.024034269995164</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.026500677818501</v>
+        <v>1.055087736404329</v>
       </c>
       <c r="D8">
-        <v>1.043542966895135</v>
+        <v>1.060978387859802</v>
       </c>
       <c r="E8">
-        <v>1.034353387526509</v>
+        <v>1.05875494928257</v>
       </c>
       <c r="F8">
-        <v>1.048067796860195</v>
+        <v>1.069748183125584</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055279007011708</v>
+        <v>1.04950955629434</v>
       </c>
       <c r="J8">
-        <v>1.047367117372908</v>
+        <v>1.059980438145284</v>
       </c>
       <c r="K8">
-        <v>1.054163736214753</v>
+        <v>1.06364188349841</v>
       </c>
       <c r="L8">
-        <v>1.045087289608176</v>
+        <v>1.061424359117806</v>
       </c>
       <c r="M8">
-        <v>1.058633766041624</v>
+        <v>1.072388610595822</v>
       </c>
       <c r="N8">
-        <v>1.018850986829076</v>
+        <v>1.023678688710707</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013321398743089</v>
+        <v>1.052457157422065</v>
       </c>
       <c r="D9">
-        <v>1.033139939589564</v>
+        <v>1.058851545146872</v>
       </c>
       <c r="E9">
-        <v>1.022365833526084</v>
+        <v>1.056241315771014</v>
       </c>
       <c r="F9">
-        <v>1.036440150763483</v>
+        <v>1.067317968153501</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050483844821308</v>
+        <v>1.048692045813814</v>
       </c>
       <c r="J9">
-        <v>1.038412357732581</v>
+        <v>1.058155266942254</v>
       </c>
       <c r="K9">
-        <v>1.04571728981426</v>
+        <v>1.061941336934925</v>
       </c>
       <c r="L9">
-        <v>1.035106171257347</v>
+        <v>1.059339247430486</v>
       </c>
       <c r="M9">
-        <v>1.048968437991507</v>
+        <v>1.070381656842992</v>
       </c>
       <c r="N9">
-        <v>1.015699875815299</v>
+        <v>1.023049171825996</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004030557081941</v>
+        <v>1.050703575389402</v>
       </c>
       <c r="D10">
-        <v>1.025828984335048</v>
+        <v>1.057433756832959</v>
       </c>
       <c r="E10">
-        <v>1.013947680163089</v>
+        <v>1.054567440897335</v>
       </c>
       <c r="F10">
-        <v>1.028278559997276</v>
+        <v>1.065699508217251</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047058926075768</v>
+        <v>1.048141101382746</v>
       </c>
       <c r="J10">
-        <v>1.032085168110658</v>
+        <v>1.056935743699301</v>
       </c>
       <c r="K10">
-        <v>1.039747039571461</v>
+        <v>1.06080448333756</v>
       </c>
       <c r="L10">
-        <v>1.028069590060682</v>
+        <v>1.057947985989279</v>
       </c>
       <c r="M10">
-        <v>1.042155341646313</v>
+        <v>1.069042245252828</v>
       </c>
       <c r="N10">
-        <v>1.013469956763337</v>
+        <v>1.022627520240493</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9998730969321342</v>
+        <v>1.049944274309114</v>
       </c>
       <c r="D11">
-        <v>1.022563967703833</v>
+        <v>1.056819861993906</v>
       </c>
       <c r="E11">
-        <v>1.010189251905649</v>
+        <v>1.053843074369796</v>
       </c>
       <c r="F11">
-        <v>1.024635869482151</v>
+        <v>1.064999092763761</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045516448420419</v>
+        <v>1.047901125873262</v>
       </c>
       <c r="J11">
-        <v>1.029251156173539</v>
+        <v>1.056407020773768</v>
       </c>
       <c r="K11">
-        <v>1.037072546954201</v>
+        <v>1.06031146086694</v>
       </c>
       <c r="L11">
-        <v>1.024921538462483</v>
+        <v>1.057345267069496</v>
       </c>
       <c r="M11">
-        <v>1.039107678360051</v>
+        <v>1.068461919210668</v>
       </c>
       <c r="N11">
-        <v>1.012470523213386</v>
+        <v>1.0224444722343</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9983072454236742</v>
+        <v>1.04966223656468</v>
       </c>
       <c r="D12">
-        <v>1.021335317095234</v>
+        <v>1.05659183635658</v>
       </c>
       <c r="E12">
-        <v>1.008775043687641</v>
+        <v>1.053574076693299</v>
       </c>
       <c r="F12">
-        <v>1.023265415868663</v>
+        <v>1.064738985200712</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044934069015644</v>
+        <v>1.047811775749946</v>
       </c>
       <c r="J12">
-        <v>1.02818341884255</v>
+        <v>1.056210529620004</v>
       </c>
       <c r="K12">
-        <v>1.036064871573447</v>
+        <v>1.06012821616405</v>
       </c>
       <c r="L12">
-        <v>1.023736036805649</v>
+        <v>1.057121345725292</v>
       </c>
       <c r="M12">
-        <v>1.037960060567169</v>
+        <v>1.068246306959083</v>
       </c>
       <c r="N12">
-        <v>1.012093899893154</v>
+        <v>1.022376409378286</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9986441262565827</v>
+        <v>1.049722734616297</v>
       </c>
       <c r="D13">
-        <v>1.021599601580414</v>
+        <v>1.056640748533205</v>
       </c>
       <c r="E13">
-        <v>1.009079237289878</v>
+        <v>1.05363177470857</v>
       </c>
       <c r="F13">
-        <v>1.023560188222581</v>
+        <v>1.064794776541694</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045059426819151</v>
+        <v>1.047830951276428</v>
       </c>
       <c r="J13">
-        <v>1.028413148755651</v>
+        <v>1.056252682170016</v>
       </c>
       <c r="K13">
-        <v>1.036281680277792</v>
+        <v>1.060167527949645</v>
       </c>
       <c r="L13">
-        <v>1.023991079497427</v>
+        <v>1.057169379646218</v>
       </c>
       <c r="M13">
-        <v>1.038206949223906</v>
+        <v>1.068292558938869</v>
       </c>
       <c r="N13">
-        <v>1.01217493587526</v>
+        <v>1.022391012291023</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9997441119378989</v>
+        <v>1.049920960978479</v>
       </c>
       <c r="D14">
-        <v>1.022462736784702</v>
+        <v>1.0568010132796</v>
       </c>
       <c r="E14">
-        <v>1.010072730406029</v>
+        <v>1.05382083762991</v>
       </c>
       <c r="F14">
-        <v>1.024522948747835</v>
+        <v>1.064977591012328</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045468504266216</v>
+        <v>1.047893744501305</v>
       </c>
       <c r="J14">
-        <v>1.029163209306906</v>
+        <v>1.056390780795247</v>
       </c>
       <c r="K14">
-        <v>1.036989547925758</v>
+        <v>1.060296316134821</v>
       </c>
       <c r="L14">
-        <v>1.024823880437968</v>
+        <v>1.057326758576697</v>
       </c>
       <c r="M14">
-        <v>1.039013139369575</v>
+        <v>1.068444097724948</v>
       </c>
       <c r="N14">
-        <v>1.012439503186544</v>
+        <v>1.022438847579461</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000418945634286</v>
+        <v>1.050043094809551</v>
       </c>
       <c r="D15">
-        <v>1.022992408907877</v>
+        <v>1.056899757967257</v>
       </c>
       <c r="E15">
-        <v>1.010682412183282</v>
+        <v>1.053937334037131</v>
       </c>
       <c r="F15">
-        <v>1.025113798566654</v>
+        <v>1.065090236703833</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045719284514075</v>
+        <v>1.047932405309104</v>
       </c>
       <c r="J15">
-        <v>1.029623322897611</v>
+        <v>1.056475854659183</v>
       </c>
       <c r="K15">
-        <v>1.037423774336692</v>
+        <v>1.060375651640358</v>
       </c>
       <c r="L15">
-        <v>1.025334822594115</v>
+        <v>1.057423718988607</v>
       </c>
       <c r="M15">
-        <v>1.03950776623339</v>
+        <v>1.068537458693869</v>
       </c>
       <c r="N15">
-        <v>1.01260178825667</v>
+        <v>1.022468311112604</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.004303525630694</v>
+        <v>1.050753967837633</v>
       </c>
       <c r="D16">
-        <v>1.026043500339987</v>
+        <v>1.057474499341771</v>
       </c>
       <c r="E16">
-        <v>1.014194632483621</v>
+        <v>1.054615523771529</v>
       </c>
       <c r="F16">
-        <v>1.028517934580107</v>
+        <v>1.065746000630371</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047160000617128</v>
+        <v>1.048156997976106</v>
       </c>
       <c r="J16">
-        <v>1.032271191011661</v>
+        <v>1.056970819317372</v>
       </c>
       <c r="K16">
-        <v>1.039922585565847</v>
+        <v>1.060837187622569</v>
       </c>
       <c r="L16">
-        <v>1.028276303010621</v>
+        <v>1.057987980223215</v>
       </c>
       <c r="M16">
-        <v>1.042355472672641</v>
+        <v>1.069080752127609</v>
       </c>
       <c r="N16">
-        <v>1.013535547250794</v>
+        <v>1.022639658625271</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.006703280579599</v>
+        <v>1.05119988191004</v>
       </c>
       <c r="D17">
-        <v>1.027930127681341</v>
+        <v>1.057835023728165</v>
       </c>
       <c r="E17">
-        <v>1.016366646115765</v>
+        <v>1.055041049565157</v>
       </c>
       <c r="F17">
-        <v>1.030623438280985</v>
+        <v>1.066157447695212</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048047463077445</v>
+        <v>1.048297500558045</v>
       </c>
       <c r="J17">
-        <v>1.033906276635777</v>
+        <v>1.057281120120796</v>
       </c>
       <c r="K17">
-        <v>1.041465543531677</v>
+        <v>1.061126493886722</v>
       </c>
       <c r="L17">
-        <v>1.030093667806786</v>
+        <v>1.058341847376219</v>
       </c>
       <c r="M17">
-        <v>1.044115019043225</v>
+        <v>1.069421451198984</v>
       </c>
       <c r="N17">
-        <v>1.014111998387419</v>
+        <v>1.022747014501563</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.008090142875163</v>
+        <v>1.051459977238325</v>
       </c>
       <c r="D18">
-        <v>1.029021050787125</v>
+        <v>1.058045313149309</v>
       </c>
       <c r="E18">
-        <v>1.017622693689229</v>
+        <v>1.055289293319249</v>
       </c>
       <c r="F18">
-        <v>1.031841135016951</v>
+        <v>1.066397475308633</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048559403386789</v>
+        <v>1.048379317026353</v>
       </c>
       <c r="J18">
-        <v>1.034850960297666</v>
+        <v>1.057462049560104</v>
       </c>
       <c r="K18">
-        <v>1.042356964856269</v>
+        <v>1.061295168289779</v>
       </c>
       <c r="L18">
-        <v>1.03114401516485</v>
+        <v>1.05854822381805</v>
       </c>
       <c r="M18">
-        <v>1.045131987222635</v>
+        <v>1.069620141271135</v>
       </c>
       <c r="N18">
-        <v>1.014444986902077</v>
+        <v>1.02280958801475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008560883461542</v>
+        <v>1.051548663264239</v>
       </c>
       <c r="D19">
-        <v>1.029391441227398</v>
+        <v>1.058117016695665</v>
       </c>
       <c r="E19">
-        <v>1.018049165843327</v>
+        <v>1.055373945126843</v>
       </c>
       <c r="F19">
-        <v>1.032254603796057</v>
+        <v>1.066479324895854</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048733009233047</v>
+        <v>1.048407191214902</v>
       </c>
       <c r="J19">
-        <v>1.035171566520759</v>
+        <v>1.057523731023998</v>
       </c>
       <c r="K19">
-        <v>1.042659488581616</v>
+        <v>1.061352669525187</v>
       </c>
       <c r="L19">
-        <v>1.031500541036611</v>
+        <v>1.058618588072713</v>
       </c>
       <c r="M19">
-        <v>1.045477188744242</v>
+        <v>1.069687883709018</v>
       </c>
       <c r="N19">
-        <v>1.014557985595525</v>
+        <v>1.022830916274564</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00644715083425</v>
+        <v>1.051152039435442</v>
       </c>
       <c r="D20">
-        <v>1.027728701221255</v>
+        <v>1.057796342705192</v>
       </c>
       <c r="E20">
-        <v>1.016134739907414</v>
+        <v>1.054995390359947</v>
       </c>
       <c r="F20">
-        <v>1.030398621647501</v>
+        <v>1.066113299443022</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047952839971395</v>
+        <v>1.048282440061737</v>
       </c>
       <c r="J20">
-        <v>1.033731788066414</v>
+        <v>1.057247834381153</v>
       </c>
       <c r="K20">
-        <v>1.041300889900169</v>
+        <v>1.061095461620969</v>
       </c>
       <c r="L20">
-        <v>1.029899690914156</v>
+        <v>1.058303883709159</v>
       </c>
       <c r="M20">
-        <v>1.043927209444225</v>
+        <v>1.069384900925753</v>
       </c>
       <c r="N20">
-        <v>1.014050488448721</v>
+        <v>1.022735500923455</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9994208011738547</v>
+        <v>1.049862588252085</v>
       </c>
       <c r="D21">
-        <v>1.022209011378164</v>
+        <v>1.056753819246812</v>
       </c>
       <c r="E21">
-        <v>1.009780682390828</v>
+        <v>1.053765161541947</v>
       </c>
       <c r="F21">
-        <v>1.024239929042912</v>
+        <v>1.064923755111745</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045348305830298</v>
+        <v>1.047875259330696</v>
       </c>
       <c r="J21">
-        <v>1.028942758427998</v>
+        <v>1.056350116954871</v>
       </c>
       <c r="K21">
-        <v>1.036781498919823</v>
+        <v>1.060258394380252</v>
       </c>
       <c r="L21">
-        <v>1.024579096095508</v>
+        <v>1.057280415643036</v>
       </c>
       <c r="M21">
-        <v>1.03877617437306</v>
+        <v>1.06839947480488</v>
       </c>
       <c r="N21">
-        <v>1.012361746028822</v>
+        <v>1.022424763230704</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9948773902699487</v>
+        <v>1.049051861304588</v>
       </c>
       <c r="D22">
-        <v>1.018646163007543</v>
+        <v>1.056098356183029</v>
       </c>
       <c r="E22">
-        <v>1.005679925610726</v>
+        <v>1.052992039579868</v>
       </c>
       <c r="F22">
-        <v>1.020266466904886</v>
+        <v>1.064176176287515</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043655866217829</v>
+        <v>1.047618018861076</v>
       </c>
       <c r="J22">
-        <v>1.025844078013991</v>
+        <v>1.055785108006965</v>
       </c>
       <c r="K22">
-        <v>1.033857069928175</v>
+        <v>1.059731436017598</v>
       </c>
       <c r="L22">
-        <v>1.021139695618306</v>
+        <v>1.056636661723518</v>
       </c>
       <c r="M22">
-        <v>1.035446855742803</v>
+        <v>1.06777958957848</v>
       </c>
       <c r="N22">
-        <v>1.011268617421813</v>
+        <v>1.022228981173254</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9972983450860471</v>
+        <v>1.049481643206541</v>
       </c>
       <c r="D23">
-        <v>1.020543995832758</v>
+        <v>1.056445828438488</v>
       </c>
       <c r="E23">
-        <v>1.00786424024221</v>
+        <v>1.053401851141713</v>
       </c>
       <c r="F23">
-        <v>1.022382853326961</v>
+        <v>1.064572450364004</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044558439822915</v>
+        <v>1.047754503555704</v>
       </c>
       <c r="J23">
-        <v>1.027495371818891</v>
+        <v>1.056084684951331</v>
       </c>
       <c r="K23">
-        <v>1.035415519537576</v>
+        <v>1.060010849408223</v>
       </c>
       <c r="L23">
-        <v>1.022972258074053</v>
+        <v>1.056977952600142</v>
       </c>
       <c r="M23">
-        <v>1.037220713932871</v>
+        <v>1.06810823187445</v>
       </c>
       <c r="N23">
-        <v>1.011851184809642</v>
+        <v>1.022332807725904</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.006562924524183</v>
+        <v>1.051173657386292</v>
       </c>
       <c r="D24">
-        <v>1.027819746501361</v>
+        <v>1.057813820989201</v>
       </c>
       <c r="E24">
-        <v>1.016239561790667</v>
+        <v>1.055016021660122</v>
       </c>
       <c r="F24">
-        <v>1.030500238692142</v>
+        <v>1.066133248021759</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047995613662526</v>
+        <v>1.048289245672805</v>
       </c>
       <c r="J24">
-        <v>1.033810659792582</v>
+        <v>1.057262874970943</v>
       </c>
       <c r="K24">
-        <v>1.04137531618067</v>
+        <v>1.061109483991602</v>
       </c>
       <c r="L24">
-        <v>1.029987370597872</v>
+        <v>1.058321037943323</v>
       </c>
       <c r="M24">
-        <v>1.044012101330084</v>
+        <v>1.069401416525575</v>
       </c>
       <c r="N24">
-        <v>1.014078292150305</v>
+        <v>1.022740703553883</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016812865963782</v>
+        <v>1.053137196850874</v>
       </c>
       <c r="D25">
-        <v>1.035892351148124</v>
+        <v>1.059401365714768</v>
       </c>
       <c r="E25">
-        <v>1.025536240257949</v>
+        <v>1.056890816996458</v>
       </c>
       <c r="F25">
-        <v>1.039514801558283</v>
+        <v>1.067945939358413</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051762036758509</v>
+        <v>1.048904437810381</v>
       </c>
       <c r="J25">
-        <v>1.040787362012257</v>
+        <v>1.058627599282065</v>
       </c>
       <c r="K25">
-        <v>1.047957911521421</v>
+        <v>1.062381524233745</v>
       </c>
       <c r="L25">
-        <v>1.037750662768694</v>
+        <v>1.059878506347578</v>
       </c>
       <c r="M25">
-        <v>1.051529176366159</v>
+        <v>1.070900755717884</v>
       </c>
       <c r="N25">
-        <v>1.016536267782483</v>
+        <v>1.023212264984273</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_74/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_74/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.054703397297098</v>
+        <v>1.024629065000337</v>
       </c>
       <c r="D2">
-        <v>1.06066765044274</v>
+        <v>1.042063427909676</v>
       </c>
       <c r="E2">
-        <v>1.058387495175654</v>
+        <v>1.03264763475936</v>
       </c>
       <c r="F2">
-        <v>1.069392940101595</v>
+        <v>1.046412920602043</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049390810923261</v>
+        <v>1.054603221671075</v>
       </c>
       <c r="J2">
-        <v>1.05971410419369</v>
+        <v>1.046097276625705</v>
       </c>
       <c r="K2">
-        <v>1.063393805474529</v>
+        <v>1.052966279677399</v>
       </c>
       <c r="L2">
-        <v>1.061119867658763</v>
+        <v>1.043670128333576</v>
       </c>
       <c r="M2">
-        <v>1.072095568152594</v>
+        <v>1.057261411359278</v>
       </c>
       <c r="N2">
-        <v>1.023586948131093</v>
+        <v>1.018404582545231</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055840672272789</v>
+        <v>1.030115785617298</v>
       </c>
       <c r="D3">
-        <v>1.061587128688237</v>
+        <v>1.046402720007175</v>
       </c>
       <c r="E3">
-        <v>1.059475010599624</v>
+        <v>1.037651371666762</v>
       </c>
       <c r="F3">
-        <v>1.070444297958106</v>
+        <v>1.051267685973257</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049741470389257</v>
+        <v>1.056578873738171</v>
       </c>
       <c r="J3">
-        <v>1.060501856882689</v>
+        <v>1.049817824745707</v>
       </c>
       <c r="K3">
-        <v>1.064127489012212</v>
+        <v>1.056474396662045</v>
       </c>
       <c r="L3">
-        <v>1.062020712803779</v>
+        <v>1.047824137186971</v>
       </c>
       <c r="M3">
-        <v>1.072962504252294</v>
+        <v>1.061284063495962</v>
       </c>
       <c r="N3">
-        <v>1.023858171336445</v>
+        <v>1.019712017660406</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056576607756947</v>
+        <v>1.033584709821053</v>
       </c>
       <c r="D4">
-        <v>1.062182114724941</v>
+        <v>1.049149189408496</v>
       </c>
       <c r="E4">
-        <v>1.060179077789721</v>
+        <v>1.040820073868245</v>
       </c>
       <c r="F4">
-        <v>1.071124926992027</v>
+        <v>1.054342445233822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049967219603939</v>
+        <v>1.057819000503894</v>
       </c>
       <c r="J4">
-        <v>1.061011058796739</v>
+        <v>1.052166656121669</v>
       </c>
       <c r="K4">
-        <v>1.064601622144134</v>
+        <v>1.058688519795577</v>
       </c>
       <c r="L4">
-        <v>1.062603395573644</v>
+        <v>1.050449587193474</v>
       </c>
       <c r="M4">
-        <v>1.073523193493495</v>
+        <v>1.063826428577018</v>
       </c>
       <c r="N4">
-        <v>1.024033287165428</v>
+        <v>1.020536573991041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056886006064761</v>
+        <v>1.035024383792122</v>
       </c>
       <c r="D5">
-        <v>1.062432252186419</v>
+        <v>1.050289689039218</v>
       </c>
       <c r="E5">
-        <v>1.060475157025801</v>
+        <v>1.042136340652313</v>
       </c>
       <c r="F5">
-        <v>1.071411142627186</v>
+        <v>1.055619768031802</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050061849143899</v>
+        <v>1.058331488521026</v>
       </c>
       <c r="J5">
-        <v>1.061225001466841</v>
+        <v>1.053140601252421</v>
       </c>
       <c r="K5">
-        <v>1.064800802046046</v>
+        <v>1.05960645481409</v>
       </c>
       <c r="L5">
-        <v>1.062848302028143</v>
+        <v>1.051538949336703</v>
       </c>
       <c r="M5">
-        <v>1.073758841252598</v>
+        <v>1.064881290344782</v>
       </c>
       <c r="N5">
-        <v>1.024106813955276</v>
+        <v>1.020878262748157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056937956073672</v>
+        <v>1.035265039818376</v>
       </c>
       <c r="D6">
-        <v>1.062474251680534</v>
+        <v>1.050480372121366</v>
       </c>
       <c r="E6">
-        <v>1.060524875283962</v>
+        <v>1.042356436761222</v>
       </c>
       <c r="F6">
-        <v>1.071459204139533</v>
+        <v>1.055833356466181</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050077721711652</v>
+        <v>1.058417026179204</v>
       </c>
       <c r="J6">
-        <v>1.061260916013222</v>
+        <v>1.05330335385553</v>
       </c>
       <c r="K6">
-        <v>1.064834236691069</v>
+        <v>1.059759838472831</v>
       </c>
       <c r="L6">
-        <v>1.06288941977823</v>
+        <v>1.051721031160115</v>
       </c>
       <c r="M6">
-        <v>1.073798403683076</v>
+        <v>1.065057603720788</v>
       </c>
       <c r="N6">
-        <v>1.024119154036302</v>
+        <v>1.020935348240387</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056580741907859</v>
+        <v>1.033604019101407</v>
       </c>
       <c r="D7">
-        <v>1.062185457052947</v>
+        <v>1.049164483556916</v>
       </c>
       <c r="E7">
-        <v>1.060183033663297</v>
+        <v>1.040837723326048</v>
       </c>
       <c r="F7">
-        <v>1.071128751108011</v>
+        <v>1.05435957220796</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049968485130604</v>
+        <v>1.057825882832718</v>
       </c>
       <c r="J7">
-        <v>1.061013918003163</v>
+        <v>1.052179722407168</v>
       </c>
       <c r="K7">
-        <v>1.064604284167883</v>
+        <v>1.05870083527725</v>
       </c>
       <c r="L7">
-        <v>1.062606668235035</v>
+        <v>1.05046419905409</v>
       </c>
       <c r="M7">
-        <v>1.073526342489494</v>
+        <v>1.063840577795194</v>
       </c>
       <c r="N7">
-        <v>1.024034269995164</v>
+        <v>1.020541158892921</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055087736404329</v>
+        <v>1.0265006778185</v>
       </c>
       <c r="D8">
-        <v>1.060978387859802</v>
+        <v>1.043542966895134</v>
       </c>
       <c r="E8">
-        <v>1.05875494928257</v>
+        <v>1.034353387526508</v>
       </c>
       <c r="F8">
-        <v>1.069748183125584</v>
+        <v>1.048067796860193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04950955629434</v>
+        <v>1.055279007011708</v>
       </c>
       <c r="J8">
-        <v>1.059980438145284</v>
+        <v>1.047367117372907</v>
       </c>
       <c r="K8">
-        <v>1.06364188349841</v>
+        <v>1.054163736214752</v>
       </c>
       <c r="L8">
-        <v>1.061424359117806</v>
+        <v>1.045087289608176</v>
       </c>
       <c r="M8">
-        <v>1.072388610595822</v>
+        <v>1.058633766041623</v>
       </c>
       <c r="N8">
-        <v>1.023678688710707</v>
+        <v>1.018850986829076</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052457157422065</v>
+        <v>1.01332139874309</v>
       </c>
       <c r="D9">
-        <v>1.058851545146872</v>
+        <v>1.033139939589564</v>
       </c>
       <c r="E9">
-        <v>1.056241315771014</v>
+        <v>1.022365833526085</v>
       </c>
       <c r="F9">
-        <v>1.067317968153501</v>
+        <v>1.036440150763484</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048692045813814</v>
+        <v>1.050483844821309</v>
       </c>
       <c r="J9">
-        <v>1.058155266942254</v>
+        <v>1.038412357732582</v>
       </c>
       <c r="K9">
-        <v>1.061941336934925</v>
+        <v>1.04571728981426</v>
       </c>
       <c r="L9">
-        <v>1.059339247430486</v>
+        <v>1.035106171257348</v>
       </c>
       <c r="M9">
-        <v>1.070381656842992</v>
+        <v>1.048968437991507</v>
       </c>
       <c r="N9">
-        <v>1.023049171825996</v>
+        <v>1.0156998758153</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050703575389402</v>
+        <v>1.004030557081941</v>
       </c>
       <c r="D10">
-        <v>1.057433756832959</v>
+        <v>1.025828984335048</v>
       </c>
       <c r="E10">
-        <v>1.054567440897335</v>
+        <v>1.01394768016309</v>
       </c>
       <c r="F10">
-        <v>1.065699508217251</v>
+        <v>1.028278559997276</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048141101382746</v>
+        <v>1.047058926075768</v>
       </c>
       <c r="J10">
-        <v>1.056935743699301</v>
+        <v>1.032085168110658</v>
       </c>
       <c r="K10">
-        <v>1.06080448333756</v>
+        <v>1.039747039571461</v>
       </c>
       <c r="L10">
-        <v>1.057947985989279</v>
+        <v>1.028069590060683</v>
       </c>
       <c r="M10">
-        <v>1.069042245252828</v>
+        <v>1.042155341646313</v>
       </c>
       <c r="N10">
-        <v>1.022627520240493</v>
+        <v>1.013469956763338</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049944274309114</v>
+        <v>0.9998730969321337</v>
       </c>
       <c r="D11">
-        <v>1.056819861993906</v>
+        <v>1.022563967703833</v>
       </c>
       <c r="E11">
-        <v>1.053843074369796</v>
+        <v>1.010189251905649</v>
       </c>
       <c r="F11">
-        <v>1.064999092763761</v>
+        <v>1.024635869482151</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047901125873262</v>
+        <v>1.045516448420419</v>
       </c>
       <c r="J11">
-        <v>1.056407020773768</v>
+        <v>1.029251156173538</v>
       </c>
       <c r="K11">
-        <v>1.06031146086694</v>
+        <v>1.037072546954201</v>
       </c>
       <c r="L11">
-        <v>1.057345267069496</v>
+        <v>1.024921538462482</v>
       </c>
       <c r="M11">
-        <v>1.068461919210668</v>
+        <v>1.039107678360051</v>
       </c>
       <c r="N11">
-        <v>1.0224444722343</v>
+        <v>1.012470523213386</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.04966223656468</v>
+        <v>0.9983072454236749</v>
       </c>
       <c r="D12">
-        <v>1.05659183635658</v>
+        <v>1.021335317095234</v>
       </c>
       <c r="E12">
-        <v>1.053574076693299</v>
+        <v>1.008775043687642</v>
       </c>
       <c r="F12">
-        <v>1.064738985200712</v>
+        <v>1.023265415868663</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047811775749946</v>
+        <v>1.044934069015644</v>
       </c>
       <c r="J12">
-        <v>1.056210529620004</v>
+        <v>1.028183418842551</v>
       </c>
       <c r="K12">
-        <v>1.06012821616405</v>
+        <v>1.036064871573448</v>
       </c>
       <c r="L12">
-        <v>1.057121345725292</v>
+        <v>1.02373603680565</v>
       </c>
       <c r="M12">
-        <v>1.068246306959083</v>
+        <v>1.037960060567169</v>
       </c>
       <c r="N12">
-        <v>1.022376409378286</v>
+        <v>1.012093899893154</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049722734616297</v>
+        <v>0.9986441262565828</v>
       </c>
       <c r="D13">
-        <v>1.056640748533205</v>
+        <v>1.021599601580414</v>
       </c>
       <c r="E13">
-        <v>1.05363177470857</v>
+        <v>1.009079237289878</v>
       </c>
       <c r="F13">
-        <v>1.064794776541694</v>
+        <v>1.023560188222582</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047830951276428</v>
+        <v>1.045059426819152</v>
       </c>
       <c r="J13">
-        <v>1.056252682170016</v>
+        <v>1.028413148755651</v>
       </c>
       <c r="K13">
-        <v>1.060167527949645</v>
+        <v>1.036281680277793</v>
       </c>
       <c r="L13">
-        <v>1.057169379646218</v>
+        <v>1.023991079497427</v>
       </c>
       <c r="M13">
-        <v>1.068292558938869</v>
+        <v>1.038206949223907</v>
       </c>
       <c r="N13">
-        <v>1.022391012291023</v>
+        <v>1.01217493587526</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049920960978479</v>
+        <v>0.9997441119379</v>
       </c>
       <c r="D14">
-        <v>1.0568010132796</v>
+        <v>1.022462736784703</v>
       </c>
       <c r="E14">
-        <v>1.05382083762991</v>
+        <v>1.01007273040603</v>
       </c>
       <c r="F14">
-        <v>1.064977591012328</v>
+        <v>1.024522948747836</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047893744501305</v>
+        <v>1.045468504266216</v>
       </c>
       <c r="J14">
-        <v>1.056390780795247</v>
+        <v>1.029163209306907</v>
       </c>
       <c r="K14">
-        <v>1.060296316134821</v>
+        <v>1.036989547925758</v>
       </c>
       <c r="L14">
-        <v>1.057326758576697</v>
+        <v>1.024823880437969</v>
       </c>
       <c r="M14">
-        <v>1.068444097724948</v>
+        <v>1.039013139369575</v>
       </c>
       <c r="N14">
-        <v>1.022438847579461</v>
+        <v>1.012439503186545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050043094809551</v>
+        <v>1.000418945634286</v>
       </c>
       <c r="D15">
-        <v>1.056899757967257</v>
+        <v>1.022992408907878</v>
       </c>
       <c r="E15">
-        <v>1.053937334037131</v>
+        <v>1.010682412183283</v>
       </c>
       <c r="F15">
-        <v>1.065090236703833</v>
+        <v>1.025113798566655</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047932405309104</v>
+        <v>1.045719284514075</v>
       </c>
       <c r="J15">
-        <v>1.056475854659183</v>
+        <v>1.029623322897612</v>
       </c>
       <c r="K15">
-        <v>1.060375651640358</v>
+        <v>1.037423774336693</v>
       </c>
       <c r="L15">
-        <v>1.057423718988607</v>
+        <v>1.025334822594116</v>
       </c>
       <c r="M15">
-        <v>1.068537458693869</v>
+        <v>1.03950776623339</v>
       </c>
       <c r="N15">
-        <v>1.022468311112604</v>
+        <v>1.01260178825667</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.050753967837633</v>
+        <v>1.004303525630694</v>
       </c>
       <c r="D16">
-        <v>1.057474499341771</v>
+        <v>1.026043500339987</v>
       </c>
       <c r="E16">
-        <v>1.054615523771529</v>
+        <v>1.014194632483621</v>
       </c>
       <c r="F16">
-        <v>1.065746000630371</v>
+        <v>1.028517934580107</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048156997976106</v>
+        <v>1.047160000617128</v>
       </c>
       <c r="J16">
-        <v>1.056970819317372</v>
+        <v>1.032271191011661</v>
       </c>
       <c r="K16">
-        <v>1.060837187622569</v>
+        <v>1.039922585565847</v>
       </c>
       <c r="L16">
-        <v>1.057987980223215</v>
+        <v>1.028276303010621</v>
       </c>
       <c r="M16">
-        <v>1.069080752127609</v>
+        <v>1.042355472672641</v>
       </c>
       <c r="N16">
-        <v>1.022639658625271</v>
+        <v>1.013535547250794</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.05119988191004</v>
+        <v>1.006703280579598</v>
       </c>
       <c r="D17">
-        <v>1.057835023728165</v>
+        <v>1.027930127681341</v>
       </c>
       <c r="E17">
-        <v>1.055041049565157</v>
+        <v>1.016366646115765</v>
       </c>
       <c r="F17">
-        <v>1.066157447695212</v>
+        <v>1.030623438280985</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048297500558045</v>
+        <v>1.048047463077445</v>
       </c>
       <c r="J17">
-        <v>1.057281120120796</v>
+        <v>1.033906276635776</v>
       </c>
       <c r="K17">
-        <v>1.061126493886722</v>
+        <v>1.041465543531676</v>
       </c>
       <c r="L17">
-        <v>1.058341847376219</v>
+        <v>1.030093667806786</v>
       </c>
       <c r="M17">
-        <v>1.069421451198984</v>
+        <v>1.044115019043224</v>
       </c>
       <c r="N17">
-        <v>1.022747014501563</v>
+        <v>1.014111998387419</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051459977238325</v>
+        <v>1.008090142875163</v>
       </c>
       <c r="D18">
-        <v>1.058045313149309</v>
+        <v>1.029021050787124</v>
       </c>
       <c r="E18">
-        <v>1.055289293319249</v>
+        <v>1.017622693689228</v>
       </c>
       <c r="F18">
-        <v>1.066397475308633</v>
+        <v>1.03184113501695</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048379317026353</v>
+        <v>1.048559403386788</v>
       </c>
       <c r="J18">
-        <v>1.057462049560104</v>
+        <v>1.034850960297665</v>
       </c>
       <c r="K18">
-        <v>1.061295168289779</v>
+        <v>1.042356964856268</v>
       </c>
       <c r="L18">
-        <v>1.05854822381805</v>
+        <v>1.031144015164849</v>
       </c>
       <c r="M18">
-        <v>1.069620141271135</v>
+        <v>1.045131987222635</v>
       </c>
       <c r="N18">
-        <v>1.02280958801475</v>
+        <v>1.014444986902077</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051548663264239</v>
+        <v>1.008560883461541</v>
       </c>
       <c r="D19">
-        <v>1.058117016695665</v>
+        <v>1.029391441227397</v>
       </c>
       <c r="E19">
-        <v>1.055373945126843</v>
+        <v>1.018049165843326</v>
       </c>
       <c r="F19">
-        <v>1.066479324895854</v>
+        <v>1.032254603796056</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048407191214902</v>
+        <v>1.048733009233047</v>
       </c>
       <c r="J19">
-        <v>1.057523731023998</v>
+        <v>1.035171566520759</v>
       </c>
       <c r="K19">
-        <v>1.061352669525187</v>
+        <v>1.042659488581615</v>
       </c>
       <c r="L19">
-        <v>1.058618588072713</v>
+        <v>1.03150054103661</v>
       </c>
       <c r="M19">
-        <v>1.069687883709018</v>
+        <v>1.045477188744241</v>
       </c>
       <c r="N19">
-        <v>1.022830916274564</v>
+        <v>1.014557985595525</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051152039435442</v>
+        <v>1.00644715083425</v>
       </c>
       <c r="D20">
-        <v>1.057796342705192</v>
+        <v>1.027728701221255</v>
       </c>
       <c r="E20">
-        <v>1.054995390359947</v>
+        <v>1.016134739907414</v>
       </c>
       <c r="F20">
-        <v>1.066113299443022</v>
+        <v>1.030398621647501</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048282440061737</v>
+        <v>1.047952839971394</v>
       </c>
       <c r="J20">
-        <v>1.057247834381153</v>
+        <v>1.033731788066413</v>
       </c>
       <c r="K20">
-        <v>1.061095461620969</v>
+        <v>1.041300889900168</v>
       </c>
       <c r="L20">
-        <v>1.058303883709159</v>
+        <v>1.029899690914155</v>
       </c>
       <c r="M20">
-        <v>1.069384900925753</v>
+        <v>1.043927209444225</v>
       </c>
       <c r="N20">
-        <v>1.022735500923455</v>
+        <v>1.014050488448721</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049862588252085</v>
+        <v>0.9994208011738567</v>
       </c>
       <c r="D21">
-        <v>1.056753819246812</v>
+        <v>1.022209011378166</v>
       </c>
       <c r="E21">
-        <v>1.053765161541947</v>
+        <v>1.00978068239083</v>
       </c>
       <c r="F21">
-        <v>1.064923755111745</v>
+        <v>1.024239929042914</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047875259330696</v>
+        <v>1.045348305830298</v>
       </c>
       <c r="J21">
-        <v>1.056350116954871</v>
+        <v>1.028942758428</v>
       </c>
       <c r="K21">
-        <v>1.060258394380252</v>
+        <v>1.036781498919825</v>
       </c>
       <c r="L21">
-        <v>1.057280415643036</v>
+        <v>1.024579096095509</v>
       </c>
       <c r="M21">
-        <v>1.06839947480488</v>
+        <v>1.038776174373062</v>
       </c>
       <c r="N21">
-        <v>1.022424763230704</v>
+        <v>1.012361746028822</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049051861304588</v>
+        <v>0.9948773902699504</v>
       </c>
       <c r="D22">
-        <v>1.056098356183029</v>
+        <v>1.018646163007544</v>
       </c>
       <c r="E22">
-        <v>1.052992039579868</v>
+        <v>1.005679925610727</v>
       </c>
       <c r="F22">
-        <v>1.064176176287515</v>
+        <v>1.020266466904887</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047618018861076</v>
+        <v>1.04365586621783</v>
       </c>
       <c r="J22">
-        <v>1.055785108006965</v>
+        <v>1.025844078013993</v>
       </c>
       <c r="K22">
-        <v>1.059731436017598</v>
+        <v>1.033857069928176</v>
       </c>
       <c r="L22">
-        <v>1.056636661723518</v>
+        <v>1.021139695618307</v>
       </c>
       <c r="M22">
-        <v>1.06777958957848</v>
+        <v>1.035446855742805</v>
       </c>
       <c r="N22">
-        <v>1.022228981173254</v>
+        <v>1.011268617421813</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.049481643206541</v>
+        <v>0.9972983450860473</v>
       </c>
       <c r="D23">
-        <v>1.056445828438488</v>
+        <v>1.020543995832758</v>
       </c>
       <c r="E23">
-        <v>1.053401851141713</v>
+        <v>1.00786424024221</v>
       </c>
       <c r="F23">
-        <v>1.064572450364004</v>
+        <v>1.022382853326961</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047754503555704</v>
+        <v>1.044558439822915</v>
       </c>
       <c r="J23">
-        <v>1.056084684951331</v>
+        <v>1.027495371818891</v>
       </c>
       <c r="K23">
-        <v>1.060010849408223</v>
+        <v>1.035415519537576</v>
       </c>
       <c r="L23">
-        <v>1.056977952600142</v>
+        <v>1.022972258074053</v>
       </c>
       <c r="M23">
-        <v>1.06810823187445</v>
+        <v>1.037220713932871</v>
       </c>
       <c r="N23">
-        <v>1.022332807725904</v>
+        <v>1.011851184809643</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.051173657386292</v>
+        <v>1.006562924524183</v>
       </c>
       <c r="D24">
-        <v>1.057813820989201</v>
+        <v>1.027819746501361</v>
       </c>
       <c r="E24">
-        <v>1.055016021660122</v>
+        <v>1.016239561790667</v>
       </c>
       <c r="F24">
-        <v>1.066133248021759</v>
+        <v>1.030500238692141</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048289245672805</v>
+        <v>1.047995613662525</v>
       </c>
       <c r="J24">
-        <v>1.057262874970943</v>
+        <v>1.033810659792582</v>
       </c>
       <c r="K24">
-        <v>1.061109483991602</v>
+        <v>1.04137531618067</v>
       </c>
       <c r="L24">
-        <v>1.058321037943323</v>
+        <v>1.029987370597872</v>
       </c>
       <c r="M24">
-        <v>1.069401416525575</v>
+        <v>1.044012101330084</v>
       </c>
       <c r="N24">
-        <v>1.022740703553883</v>
+        <v>1.014078292150305</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053137196850874</v>
+        <v>1.016812865963781</v>
       </c>
       <c r="D25">
-        <v>1.059401365714768</v>
+        <v>1.035892351148124</v>
       </c>
       <c r="E25">
-        <v>1.056890816996458</v>
+        <v>1.025536240257949</v>
       </c>
       <c r="F25">
-        <v>1.067945939358413</v>
+        <v>1.039514801558283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048904437810381</v>
+        <v>1.051762036758509</v>
       </c>
       <c r="J25">
-        <v>1.058627599282065</v>
+        <v>1.040787362012257</v>
       </c>
       <c r="K25">
-        <v>1.062381524233745</v>
+        <v>1.047957911521421</v>
       </c>
       <c r="L25">
-        <v>1.059878506347578</v>
+        <v>1.037750662768693</v>
       </c>
       <c r="M25">
-        <v>1.070900755717884</v>
+        <v>1.051529176366159</v>
       </c>
       <c r="N25">
-        <v>1.023212264984273</v>
+        <v>1.016536267782483</v>
       </c>
     </row>
   </sheetData>
